--- a/NGDPR_forecast/final_result_for_NGDPR.xlsx
+++ b/NGDPR_forecast/final_result_for_NGDPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\macroframe-forecast\NGDPR_forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE1A69D-7653-4074-A3DC-6B1B29B05295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B4A3EF-DCD3-46D3-86CF-B79E5D6E1524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Country</t>
   </si>
   <si>
     <t>Ground Truth</t>
@@ -54,15 +51,6 @@
   </si>
   <si>
     <t>1st+2nd Stage Prediction</t>
-  </si>
-  <si>
-    <t>SGP</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>CHN</t>
   </si>
   <si>
     <t>Method</t>
@@ -79,6 +67,27 @@
   <si>
     <t>Units in Billions of National Currency, all using these 6 constraints NGDP_R=NC+NI+NFB+NSDGDP; NFB=NX-NM, NX=NXG+NXM, NM=NMG+NMS, NI=NFI+NINV, NGS=NI+bca</t>
   </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>SGP16</t>
+  </si>
+  <si>
+    <t>SGP21</t>
+  </si>
+  <si>
+    <t>USA16</t>
+  </si>
+  <si>
+    <t>CHN16</t>
+  </si>
+  <si>
+    <t>USA21</t>
+  </si>
+  <si>
+    <t>CHN21</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +132,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,11 +201,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +490,10 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A3"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,57 +510,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
+      <c r="A1" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -558,7 +573,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>2016</v>
@@ -590,7 +605,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>2017</v>
@@ -622,7 +637,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>2018</v>
@@ -654,7 +669,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>2019</v>
@@ -686,7 +701,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>2020</v>
@@ -718,7 +733,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>2021</v>
@@ -750,7 +765,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>2022</v>
@@ -782,7 +797,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>2023</v>
@@ -834,7 +849,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>2016</v>
@@ -866,7 +881,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>2017</v>
@@ -898,7 +913,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>2018</v>
@@ -930,7 +945,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>2019</v>
@@ -962,7 +977,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
         <v>2020</v>
@@ -994,7 +1009,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3">
         <v>2021</v>
@@ -1026,7 +1041,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3">
         <v>2022</v>
@@ -1058,7 +1073,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3">
         <v>2023</v>
@@ -1110,7 +1125,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3">
         <v>2016</v>
@@ -1142,7 +1157,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3">
         <v>2017</v>
@@ -1174,7 +1189,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3">
         <v>2018</v>
@@ -1206,7 +1221,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3">
         <v>2019</v>
@@ -1238,7 +1253,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3">
         <v>2020</v>
@@ -1270,7 +1285,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B28" s="3">
         <v>2021</v>
@@ -1302,7 +1317,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3">
         <v>2022</v>
@@ -1334,7 +1349,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3">
         <v>2023</v>
@@ -1386,7 +1401,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -1399,7 +1414,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3">
         <v>2021</v>
@@ -1431,7 +1446,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B34" s="3">
         <v>2022</v>
@@ -1463,7 +1478,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3">
         <v>2023</v>
@@ -1515,7 +1530,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B37" s="3">
         <v>2021</v>
@@ -1547,7 +1562,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3">
         <v>2022</v>
@@ -1579,7 +1594,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B39" s="3">
         <v>2023</v>
@@ -1631,7 +1646,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B41" s="3">
         <v>2021</v>
@@ -1663,7 +1678,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B42" s="3">
         <v>2022</v>
@@ -1695,7 +1710,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B43" s="3">
         <v>2023</v>
@@ -1752,6 +1767,7 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
